--- a/Wheat/IndexFiles/RadiationAndTempIndex.xlsx
+++ b/Wheat/IndexFiles/RadiationAndTempIndex.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="247">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -753,6 +753,18 @@
   </si>
   <si>
     <t>AboveCanopyPAR3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
+      <selection activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1531,16 +1543,15 @@
         <f t="shared" ref="F13:F44" si="0">VLOOKUP($E13,Layout,L$1,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="G13">
-        <f t="shared" ref="G13:G44" si="1">VLOOKUP($E13,Layout,M$1,FALSE)</f>
-        <v>1</v>
+      <c r="G13" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ref="H13:H44" si="2">VLOOKUP($E13,Layout,N$1,FALSE)</f>
+        <f t="shared" ref="H13:H44" si="1">VLOOKUP($E13,Layout,N$1,FALSE)</f>
         <v>250</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ref="I13:I44" si="3">VLOOKUP($E13,Layout,O$1,FALSE)</f>
+        <f t="shared" ref="I13:I44" si="2">VLOOKUP($E13,Layout,O$1,FALSE)</f>
         <v>Dryland</v>
       </c>
       <c r="L13">
@@ -1561,23 +1572,22 @@
         <v>191</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E77" si="4">100+L14</f>
+        <f t="shared" ref="E14:E77" si="3">100+L14</f>
         <v>101</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H14" t="str">
+        <v>250</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L14">
@@ -1598,23 +1608,22 @@
         <v>191</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H15" t="str">
+        <v>250</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L15">
@@ -1635,23 +1644,22 @@
         <v>191</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H16" t="str">
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L16">
@@ -1672,23 +1680,22 @@
         <v>191</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H17" t="str">
+        <v>50</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L17">
@@ -1709,23 +1716,22 @@
         <v>191</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H18" t="str">
+        <v>0</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L18">
@@ -1746,23 +1752,22 @@
         <v>191</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H19" t="str">
+        <v>50</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L19">
@@ -1783,23 +1788,22 @@
         <v>191</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H20" t="str">
+        <v>50</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L20">
@@ -1820,23 +1824,22 @@
         <v>191</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H21" t="str">
+        <v>0</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L21">
@@ -1857,23 +1860,22 @@
         <v>191</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H22" t="str">
+        <v>250</v>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L22">
@@ -1894,23 +1896,22 @@
         <v>191</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H23" t="str">
+        <v>250</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L23">
@@ -1931,23 +1932,22 @@
         <v>191</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H24" t="str">
+        <v>0</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L24">
@@ -1968,23 +1968,22 @@
         <v>191</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H25" t="str">
+        <v>50</v>
+      </c>
+      <c r="I25" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L25">
@@ -2005,23 +2004,22 @@
         <v>191</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H26" t="str">
+        <v>250</v>
+      </c>
+      <c r="I26" t="str">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L26">
@@ -2042,23 +2040,22 @@
         <v>191</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H27" t="str">
+        <v>50</v>
+      </c>
+      <c r="I27" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L27">
@@ -2079,23 +2076,22 @@
         <v>191</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H28" t="str">
+        <v>0</v>
+      </c>
+      <c r="I28" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L28">
@@ -2116,23 +2112,22 @@
         <v>191</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H29" t="str">
+        <v>0</v>
+      </c>
+      <c r="I29" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L29">
@@ -2153,23 +2148,22 @@
         <v>191</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H30" t="str">
+        <v>250</v>
+      </c>
+      <c r="I30" t="str">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L30">
@@ -2190,23 +2184,22 @@
         <v>191</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H31" t="str">
+        <v>50</v>
+      </c>
+      <c r="I31" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L31">
@@ -2227,23 +2220,22 @@
         <v>191</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H32" t="str">
+        <v>50</v>
+      </c>
+      <c r="I32" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L32">
@@ -2264,23 +2256,22 @@
         <v>191</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H33" t="str">
+        <v>50</v>
+      </c>
+      <c r="I33" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L33">
@@ -2301,23 +2292,22 @@
         <v>191</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H34" t="str">
+        <v>0</v>
+      </c>
+      <c r="I34" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L34">
@@ -2338,23 +2328,22 @@
         <v>191</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H35" t="str">
+        <v>0</v>
+      </c>
+      <c r="I35" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L35">
@@ -2375,23 +2364,22 @@
         <v>191</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H36" t="str">
+        <v>250</v>
+      </c>
+      <c r="I36" t="str">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L36">
@@ -2412,23 +2400,22 @@
         <v>191</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H37" t="str">
+        <v>250</v>
+      </c>
+      <c r="I37" t="str">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L37">
@@ -2449,23 +2436,22 @@
         <v>192</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H38" t="str">
+        <v>250</v>
+      </c>
+      <c r="I38" t="str">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L38">
@@ -2486,23 +2472,22 @@
         <v>192</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H39" t="str">
+        <v>250</v>
+      </c>
+      <c r="I39" t="str">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L39">
@@ -2523,23 +2508,22 @@
         <v>192</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H40" t="str">
+        <v>0</v>
+      </c>
+      <c r="I40" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L40">
@@ -2560,23 +2544,22 @@
         <v>192</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H41" t="str">
+        <v>50</v>
+      </c>
+      <c r="I41" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L41">
@@ -2597,23 +2580,22 @@
         <v>192</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H42" t="str">
+        <v>0</v>
+      </c>
+      <c r="I42" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L42">
@@ -2634,23 +2616,22 @@
         <v>192</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H43" t="str">
+        <v>50</v>
+      </c>
+      <c r="I43" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="3"/>
         <v>Dryland</v>
       </c>
       <c r="L43">
@@ -2671,23 +2652,22 @@
         <v>192</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H44" t="str">
+        <v>50</v>
+      </c>
+      <c r="I44" t="str">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="3"/>
         <v>Irrigated</v>
       </c>
       <c r="L44">
@@ -2708,23 +2688,22 @@
         <v>192</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:F76" si="5">VLOOKUP($E45,Layout,L$1,FALSE)</f>
+        <f t="shared" ref="F45:F76" si="4">VLOOKUP($E45,Layout,L$1,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G45">
-        <f t="shared" ref="G45:G76" si="6">VLOOKUP($E45,Layout,M$1,FALSE)</f>
-        <v>2</v>
+      <c r="G45" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ref="H45:H76" si="7">VLOOKUP($E45,Layout,N$1,FALSE)</f>
+        <f t="shared" ref="H45:H76" si="5">VLOOKUP($E45,Layout,N$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" ref="I45:I76" si="8">VLOOKUP($E45,Layout,O$1,FALSE)</f>
+        <f t="shared" ref="I45:I76" si="6">VLOOKUP($E45,Layout,O$1,FALSE)</f>
         <v>Dryland</v>
       </c>
       <c r="L45">
@@ -2745,23 +2724,22 @@
         <v>192</v>
       </c>
       <c r="E46">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="4"/>
-        <v>109</v>
-      </c>
-      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H46" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G46">
+        <v>250</v>
+      </c>
+      <c r="I46" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L46">
@@ -2782,23 +2760,22 @@
         <v>192</v>
       </c>
       <c r="E47">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="G47">
+        <v>250</v>
+      </c>
+      <c r="I47" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L47">
@@ -2819,23 +2796,22 @@
         <v>192</v>
       </c>
       <c r="E48">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L48">
@@ -2856,23 +2832,22 @@
         <v>192</v>
       </c>
       <c r="E49">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="4"/>
-        <v>112</v>
-      </c>
-      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H49" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="I49" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L49">
@@ -2893,23 +2868,22 @@
         <v>192</v>
       </c>
       <c r="E50">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="4"/>
-        <v>113</v>
-      </c>
-      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G50">
+        <v>250</v>
+      </c>
+      <c r="I50" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L50">
@@ -2930,23 +2904,22 @@
         <v>192</v>
       </c>
       <c r="E51">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="4"/>
-        <v>114</v>
-      </c>
-      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H51" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="I51" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L51">
@@ -2967,23 +2940,22 @@
         <v>192</v>
       </c>
       <c r="E52">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H52" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L52">
@@ -3004,23 +2976,22 @@
         <v>192</v>
       </c>
       <c r="E53">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="4"/>
-        <v>116</v>
-      </c>
-      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H53" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L53">
@@ -3041,23 +3012,22 @@
         <v>192</v>
       </c>
       <c r="E54">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="4"/>
-        <v>117</v>
-      </c>
-      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H54" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="G54">
+        <v>250</v>
+      </c>
+      <c r="I54" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L54">
@@ -3078,23 +3048,22 @@
         <v>192</v>
       </c>
       <c r="E55">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="4"/>
-        <v>118</v>
-      </c>
-      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H55" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="I55" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L55">
@@ -3115,23 +3084,22 @@
         <v>192</v>
       </c>
       <c r="E56">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="4"/>
-        <v>119</v>
-      </c>
-      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H56" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G56">
+        <v>50</v>
+      </c>
+      <c r="I56" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="I56" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L56">
@@ -3152,23 +3120,22 @@
         <v>192</v>
       </c>
       <c r="E57">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H57" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="G57">
+        <v>50</v>
+      </c>
+      <c r="I57" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L57">
@@ -3189,23 +3156,22 @@
         <v>192</v>
       </c>
       <c r="E58">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="4"/>
-        <v>121</v>
-      </c>
-      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H58" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L58">
@@ -3226,23 +3192,22 @@
         <v>192</v>
       </c>
       <c r="E59">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="4"/>
-        <v>122</v>
-      </c>
-      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H59" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L59">
@@ -3263,23 +3228,22 @@
         <v>192</v>
       </c>
       <c r="E60">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="4"/>
-        <v>123</v>
-      </c>
-      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H60" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="G60">
+        <v>250</v>
+      </c>
+      <c r="I60" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L60">
@@ -3300,23 +3264,22 @@
         <v>192</v>
       </c>
       <c r="E61">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="4"/>
-        <v>124</v>
-      </c>
-      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H61" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G61">
+        <v>250</v>
+      </c>
+      <c r="I61" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L61">
@@ -3337,23 +3300,22 @@
         <v>193</v>
       </c>
       <c r="E62">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H62" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G62">
+        <v>250</v>
+      </c>
+      <c r="I62" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L62">
@@ -3374,23 +3336,22 @@
         <v>193</v>
       </c>
       <c r="E63">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H63" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="G63">
+        <v>250</v>
+      </c>
+      <c r="I63" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="I63" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L63">
@@ -3411,23 +3372,22 @@
         <v>193</v>
       </c>
       <c r="E64">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="4"/>
-        <v>103</v>
-      </c>
-      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H64" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I64" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L64">
@@ -3448,23 +3408,22 @@
         <v>193</v>
       </c>
       <c r="E65">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="F65">
         <f t="shared" si="4"/>
-        <v>104</v>
-      </c>
-      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H65" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G65">
+        <v>50</v>
+      </c>
+      <c r="I65" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H65" t="str">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="I65" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L65">
@@ -3485,23 +3444,22 @@
         <v>193</v>
       </c>
       <c r="E66">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H66" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I66" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L66">
@@ -3522,23 +3480,22 @@
         <v>193</v>
       </c>
       <c r="E67">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="F67">
         <f t="shared" si="4"/>
-        <v>106</v>
-      </c>
-      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H67" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="G67">
+        <v>50</v>
+      </c>
+      <c r="I67" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L67">
@@ -3559,23 +3516,22 @@
         <v>193</v>
       </c>
       <c r="E68">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="4"/>
-        <v>107</v>
-      </c>
-      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G68">
+        <v>50</v>
+      </c>
+      <c r="I68" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="I68" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L68">
@@ -3596,23 +3552,22 @@
         <v>193</v>
       </c>
       <c r="E69">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H69" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I69" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L69">
@@ -3633,23 +3588,22 @@
         <v>193</v>
       </c>
       <c r="E70">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="4"/>
-        <v>109</v>
-      </c>
-      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H70" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G70">
+        <v>250</v>
+      </c>
+      <c r="I70" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L70">
@@ -3670,23 +3624,22 @@
         <v>193</v>
       </c>
       <c r="E71">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H71" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="G71">
+        <v>250</v>
+      </c>
+      <c r="I71" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L71">
@@ -3707,23 +3660,22 @@
         <v>193</v>
       </c>
       <c r="E72">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="F72">
         <f t="shared" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H72" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L72">
@@ -3744,23 +3696,22 @@
         <v>193</v>
       </c>
       <c r="E73">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="4"/>
-        <v>112</v>
-      </c>
-      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H73" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="G73">
+        <v>50</v>
+      </c>
+      <c r="I73" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L73">
@@ -3781,23 +3732,22 @@
         <v>193</v>
       </c>
       <c r="E74">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="4"/>
-        <v>113</v>
-      </c>
-      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H74" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G74">
+        <v>250</v>
+      </c>
+      <c r="I74" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H74" t="str">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="I74" t="str">
-        <f t="shared" si="8"/>
         <v>Dryland</v>
       </c>
       <c r="L74">
@@ -3818,23 +3768,22 @@
         <v>193</v>
       </c>
       <c r="E75">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="F75">
         <f t="shared" si="4"/>
-        <v>114</v>
-      </c>
-      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H75" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G75">
+        <v>50</v>
+      </c>
+      <c r="I75" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H75" t="str">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="I75" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L75">
@@ -3855,23 +3804,22 @@
         <v>193</v>
       </c>
       <c r="E76">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="F76">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H76" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I76" t="str">
-        <f t="shared" si="8"/>
         <v>Irrigated</v>
       </c>
       <c r="L76">
@@ -3892,23 +3840,22 @@
         <v>193</v>
       </c>
       <c r="E77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:F108" si="9">VLOOKUP($E77,Layout,L$1,FALSE)</f>
+        <f t="shared" ref="F77:F108" si="7">VLOOKUP($E77,Layout,L$1,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G77">
-        <f t="shared" ref="G77:G108" si="10">VLOOKUP($E77,Layout,M$1,FALSE)</f>
-        <v>3</v>
+      <c r="G77" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" ref="H77:H108" si="11">VLOOKUP($E77,Layout,N$1,FALSE)</f>
+        <f t="shared" ref="H77:H108" si="8">VLOOKUP($E77,Layout,N$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" ref="I77:I108" si="12">VLOOKUP($E77,Layout,O$1,FALSE)</f>
+        <f t="shared" ref="I77:I108" si="9">VLOOKUP($E77,Layout,O$1,FALSE)</f>
         <v>Dryland</v>
       </c>
       <c r="L77">
@@ -3929,23 +3876,22 @@
         <v>193</v>
       </c>
       <c r="E78">
-        <f t="shared" ref="E78:E141" si="13">100+L78</f>
+        <f t="shared" ref="E78:E141" si="10">100+L78</f>
         <v>117</v>
       </c>
       <c r="F78">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="I78" t="str">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="I78" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L78">
@@ -3966,23 +3912,22 @@
         <v>193</v>
       </c>
       <c r="E79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>118</v>
       </c>
       <c r="F79">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I79" t="str">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="I79" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L79">
@@ -4003,23 +3948,22 @@
         <v>193</v>
       </c>
       <c r="E80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
       <c r="F80">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I80" t="str">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="I80" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L80">
@@ -4040,23 +3984,22 @@
         <v>193</v>
       </c>
       <c r="E81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="F81">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I81" t="str">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="I81" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L81">
@@ -4077,23 +4020,22 @@
         <v>193</v>
       </c>
       <c r="E82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="F82">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I82" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L82">
@@ -4114,23 +4056,22 @@
         <v>193</v>
       </c>
       <c r="E83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="F83">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="str">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I83" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L83">
@@ -4151,23 +4092,22 @@
         <v>193</v>
       </c>
       <c r="E84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>123</v>
       </c>
       <c r="F84">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="I84" t="str">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="I84" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L84">
@@ -4188,23 +4128,22 @@
         <v>193</v>
       </c>
       <c r="E85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="F85">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="I85" t="str">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="I85" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L85">
@@ -4225,23 +4164,22 @@
         <v>194</v>
       </c>
       <c r="E86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
       <c r="F86">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="I86" t="str">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="I86" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L86">
@@ -4262,23 +4200,22 @@
         <v>194</v>
       </c>
       <c r="E87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="F87">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="I87" t="str">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="I87" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L87">
@@ -4299,23 +4236,22 @@
         <v>194</v>
       </c>
       <c r="E88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>103</v>
       </c>
       <c r="F88">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="str">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I88" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L88">
@@ -4336,23 +4272,22 @@
         <v>194</v>
       </c>
       <c r="E89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
       <c r="F89">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I89" t="str">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="H89" t="str">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="I89" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L89">
@@ -4373,23 +4308,22 @@
         <v>194</v>
       </c>
       <c r="E90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="F90">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I90" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L90">
@@ -4410,23 +4344,22 @@
         <v>194</v>
       </c>
       <c r="E91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="F91">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I91" t="str">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="I91" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L91">
@@ -4447,23 +4380,22 @@
         <v>194</v>
       </c>
       <c r="E92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>107</v>
       </c>
       <c r="F92">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I92" t="str">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="I92" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L92">
@@ -4484,23 +4416,22 @@
         <v>194</v>
       </c>
       <c r="E93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="F93">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I93" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L93">
@@ -4521,23 +4452,22 @@
         <v>194</v>
       </c>
       <c r="E94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109</v>
       </c>
       <c r="F94">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="I94" t="str">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="I94" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L94">
@@ -4558,23 +4488,22 @@
         <v>194</v>
       </c>
       <c r="E95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="F95">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="I95" t="str">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="I95" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L95">
@@ -4595,23 +4524,22 @@
         <v>194</v>
       </c>
       <c r="E96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>111</v>
       </c>
       <c r="F96">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="str">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I96" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L96">
@@ -4632,23 +4560,22 @@
         <v>194</v>
       </c>
       <c r="E97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>112</v>
       </c>
       <c r="F97">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I97" t="str">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="I97" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L97">
@@ -4669,23 +4596,22 @@
         <v>194</v>
       </c>
       <c r="E98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>113</v>
       </c>
       <c r="F98">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="I98" t="str">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="I98" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L98">
@@ -4706,23 +4632,22 @@
         <v>194</v>
       </c>
       <c r="E99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>114</v>
       </c>
       <c r="F99">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I99" t="str">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="I99" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L99">
@@ -4743,23 +4668,22 @@
         <v>194</v>
       </c>
       <c r="E100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
       <c r="F100">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="str">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I100" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L100">
@@ -4780,23 +4704,22 @@
         <v>194</v>
       </c>
       <c r="E101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>116</v>
       </c>
       <c r="F101">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I101" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L101">
@@ -4817,23 +4740,22 @@
         <v>194</v>
       </c>
       <c r="E102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>117</v>
       </c>
       <c r="F102">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="I102" t="str">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="I102" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L102">
@@ -4854,23 +4776,22 @@
         <v>194</v>
       </c>
       <c r="E103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>118</v>
       </c>
       <c r="F103">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I103" t="str">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="I103" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L103">
@@ -4891,23 +4812,22 @@
         <v>194</v>
       </c>
       <c r="E104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
       <c r="F104">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I104" t="str">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="I104" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L104">
@@ -4928,23 +4848,22 @@
         <v>194</v>
       </c>
       <c r="E105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="F105">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I105" t="str">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H105" t="str">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="I105" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L105">
@@ -4965,23 +4884,22 @@
         <v>194</v>
       </c>
       <c r="E106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="F106">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H106" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I106" t="str">
-        <f t="shared" si="12"/>
         <v>Dryland</v>
       </c>
       <c r="L106">
@@ -5002,23 +4920,22 @@
         <v>194</v>
       </c>
       <c r="E107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="F107">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="str">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H107" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I107" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L107">
@@ -5039,23 +4956,22 @@
         <v>194</v>
       </c>
       <c r="E108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>123</v>
       </c>
       <c r="F108">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="I108" t="str">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H108" t="str">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="I108" t="str">
-        <f t="shared" si="12"/>
         <v>Irrigated</v>
       </c>
       <c r="L108">
@@ -5076,23 +4992,22 @@
         <v>194</v>
       </c>
       <c r="E109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109:F140" si="14">VLOOKUP($E109,Layout,L$1,FALSE)</f>
+        <f t="shared" ref="F109:F140" si="11">VLOOKUP($E109,Layout,L$1,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="G109">
-        <f t="shared" ref="G109:G140" si="15">VLOOKUP($E109,Layout,M$1,FALSE)</f>
-        <v>4</v>
+      <c r="G109" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" ref="H109:H140" si="16">VLOOKUP($E109,Layout,N$1,FALSE)</f>
+        <f t="shared" ref="H109:H140" si="12">VLOOKUP($E109,Layout,N$1,FALSE)</f>
         <v>250</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" ref="I109:I140" si="17">VLOOKUP($E109,Layout,O$1,FALSE)</f>
+        <f t="shared" ref="I109:I140" si="13">VLOOKUP($E109,Layout,O$1,FALSE)</f>
         <v>Dryland</v>
       </c>
       <c r="L109">
@@ -5113,23 +5028,22 @@
         <v>195</v>
       </c>
       <c r="E110">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I110" t="str">
         <f t="shared" si="13"/>
-        <v>101</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H110" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I110" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L110" s="4">
@@ -5150,23 +5064,22 @@
         <v>195</v>
       </c>
       <c r="E111">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I111" t="str">
         <f t="shared" si="13"/>
-        <v>102</v>
-      </c>
-      <c r="F111">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H111" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I111" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L111" s="4">
@@ -5187,23 +5100,22 @@
         <v>195</v>
       </c>
       <c r="E112">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="str">
         <f t="shared" si="13"/>
-        <v>103</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H112" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I112" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L112" s="4">
@@ -5224,23 +5136,22 @@
         <v>195</v>
       </c>
       <c r="E113">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="str">
         <f t="shared" si="13"/>
-        <v>105</v>
-      </c>
-      <c r="F113">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H113" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I113" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L113" s="4">
@@ -5261,23 +5172,22 @@
         <v>195</v>
       </c>
       <c r="E114">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="str">
         <f t="shared" si="13"/>
-        <v>108</v>
-      </c>
-      <c r="F114">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H114" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I114" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L114" s="4">
@@ -5298,23 +5208,22 @@
         <v>195</v>
       </c>
       <c r="E115">
+        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I115" t="str">
         <f t="shared" si="13"/>
-        <v>109</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H115" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I115" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L115" s="4">
@@ -5335,23 +5244,22 @@
         <v>195</v>
       </c>
       <c r="E116">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I116" t="str">
         <f t="shared" si="13"/>
-        <v>110</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H116" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I116" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L116" s="4">
@@ -5372,23 +5280,22 @@
         <v>195</v>
       </c>
       <c r="E117">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="str">
         <f t="shared" si="13"/>
-        <v>111</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H117" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I117" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L117" s="4">
@@ -5409,23 +5316,22 @@
         <v>195</v>
       </c>
       <c r="E118">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I118" t="str">
         <f t="shared" si="13"/>
-        <v>113</v>
-      </c>
-      <c r="F118">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="H118" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I118" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L118" s="4">
@@ -5446,23 +5352,22 @@
         <v>195</v>
       </c>
       <c r="E119">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="str">
         <f t="shared" si="13"/>
-        <v>115</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="H119" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I119" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L119" s="4">
@@ -5483,23 +5388,22 @@
         <v>195</v>
       </c>
       <c r="E120">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="str">
         <f t="shared" si="13"/>
-        <v>116</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="H120" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I120" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L120" s="4">
@@ -5520,23 +5424,22 @@
         <v>195</v>
       </c>
       <c r="E121">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I121" t="str">
         <f t="shared" si="13"/>
-        <v>117</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="H121" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I121" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L121" s="4">
@@ -5557,23 +5460,22 @@
         <v>197</v>
       </c>
       <c r="E122">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I122" t="str">
         <f t="shared" si="13"/>
-        <v>101</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H122" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I122" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L122" s="4">
@@ -5594,23 +5496,22 @@
         <v>197</v>
       </c>
       <c r="E123">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I123" t="str">
         <f t="shared" si="13"/>
-        <v>102</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H123" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I123" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L123" s="4">
@@ -5631,23 +5532,22 @@
         <v>197</v>
       </c>
       <c r="E124">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="str">
         <f t="shared" si="13"/>
-        <v>103</v>
-      </c>
-      <c r="F124">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H124" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I124" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L124" s="4">
@@ -5668,23 +5568,22 @@
         <v>197</v>
       </c>
       <c r="E125">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="str">
         <f t="shared" si="13"/>
-        <v>105</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H125" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I125" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L125" s="4">
@@ -5705,23 +5604,22 @@
         <v>197</v>
       </c>
       <c r="E126">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="str">
         <f t="shared" si="13"/>
-        <v>108</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H126" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I126" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L126" s="4">
@@ -5742,23 +5640,22 @@
         <v>197</v>
       </c>
       <c r="E127">
+        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I127" t="str">
         <f t="shared" si="13"/>
-        <v>109</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H127" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I127" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L127" s="4">
@@ -5779,23 +5676,22 @@
         <v>197</v>
       </c>
       <c r="E128">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I128" t="str">
         <f t="shared" si="13"/>
-        <v>110</v>
-      </c>
-      <c r="F128">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H128" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I128" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L128" s="4">
@@ -5816,23 +5712,22 @@
         <v>197</v>
       </c>
       <c r="E129">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="str">
         <f t="shared" si="13"/>
-        <v>111</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H129" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I129" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L129" s="4">
@@ -5853,23 +5748,22 @@
         <v>197</v>
       </c>
       <c r="E130">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I130" t="str">
         <f t="shared" si="13"/>
-        <v>113</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="H130" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I130" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L130" s="4">
@@ -5890,23 +5784,22 @@
         <v>197</v>
       </c>
       <c r="E131">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="str">
         <f t="shared" si="13"/>
-        <v>115</v>
-      </c>
-      <c r="F131">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G131">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="H131" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I131" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L131" s="4">
@@ -5927,23 +5820,22 @@
         <v>197</v>
       </c>
       <c r="E132">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="str">
         <f t="shared" si="13"/>
-        <v>116</v>
-      </c>
-      <c r="F132">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="H132" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I132" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L132" s="4">
@@ -5964,23 +5856,22 @@
         <v>197</v>
       </c>
       <c r="E133">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I133" t="str">
         <f t="shared" si="13"/>
-        <v>117</v>
-      </c>
-      <c r="F133">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G133">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="H133" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I133" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L133" s="4">
@@ -6001,23 +5892,22 @@
         <v>196</v>
       </c>
       <c r="E134">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I134" t="str">
         <f t="shared" si="13"/>
-        <v>101</v>
-      </c>
-      <c r="F134">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H134" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I134" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L134" s="4">
@@ -6038,23 +5928,22 @@
         <v>196</v>
       </c>
       <c r="E135">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I135" t="str">
         <f t="shared" si="13"/>
-        <v>102</v>
-      </c>
-      <c r="F135">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H135" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I135" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L135" s="4">
@@ -6075,23 +5964,22 @@
         <v>196</v>
       </c>
       <c r="E136">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="str">
         <f t="shared" si="13"/>
-        <v>103</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H136" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I136" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L136" s="4">
@@ -6112,23 +6000,22 @@
         <v>196</v>
       </c>
       <c r="E137">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="str">
         <f t="shared" si="13"/>
-        <v>105</v>
-      </c>
-      <c r="F137">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H137" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I137" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L137" s="4">
@@ -6149,23 +6036,22 @@
         <v>196</v>
       </c>
       <c r="E138">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="str">
         <f t="shared" si="13"/>
-        <v>108</v>
-      </c>
-      <c r="F138">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H138" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I138" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L138" s="4">
@@ -6186,23 +6072,22 @@
         <v>196</v>
       </c>
       <c r="E139">
+        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I139" t="str">
         <f t="shared" si="13"/>
-        <v>109</v>
-      </c>
-      <c r="F139">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H139" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I139" t="str">
-        <f t="shared" si="17"/>
         <v>Dryland</v>
       </c>
       <c r="L139" s="4">
@@ -6223,23 +6108,22 @@
         <v>196</v>
       </c>
       <c r="E140">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="I140" t="str">
         <f t="shared" si="13"/>
-        <v>110</v>
-      </c>
-      <c r="F140">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H140" t="str">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="I140" t="str">
-        <f t="shared" si="17"/>
         <v>Irrigated</v>
       </c>
       <c r="L140" s="4">
@@ -6260,23 +6144,22 @@
         <v>196</v>
       </c>
       <c r="E141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>111</v>
       </c>
       <c r="F141">
-        <f t="shared" ref="F141:F169" si="18">VLOOKUP($E141,Layout,L$1,FALSE)</f>
+        <f t="shared" ref="F141:F169" si="14">VLOOKUP($E141,Layout,L$1,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G141">
-        <f t="shared" ref="G141:G169" si="19">VLOOKUP($E141,Layout,M$1,FALSE)</f>
-        <v>2</v>
+      <c r="G141" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" ref="H141:H169" si="20">VLOOKUP($E141,Layout,N$1,FALSE)</f>
+        <f t="shared" ref="H141:H169" si="15">VLOOKUP($E141,Layout,N$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I141" t="str">
-        <f t="shared" ref="I141:I169" si="21">VLOOKUP($E141,Layout,O$1,FALSE)</f>
+        <f t="shared" ref="I141:I169" si="16">VLOOKUP($E141,Layout,O$1,FALSE)</f>
         <v>Irrigated</v>
       </c>
       <c r="L141" s="4">
@@ -6297,23 +6180,22 @@
         <v>196</v>
       </c>
       <c r="E142">
-        <f t="shared" ref="E142:E181" si="22">100+L142</f>
+        <f t="shared" ref="E142:E181" si="17">100+L142</f>
         <v>113</v>
       </c>
       <c r="F142">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="G142">
-        <f t="shared" si="19"/>
-        <v>3</v>
+      <c r="G142" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I142" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L142" s="4">
@@ -6334,23 +6216,22 @@
         <v>196</v>
       </c>
       <c r="E143">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>115</v>
       </c>
       <c r="F143">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="G143">
-        <f t="shared" si="19"/>
-        <v>3</v>
+      <c r="G143" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I143" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L143" s="4">
@@ -6371,23 +6252,22 @@
         <v>196</v>
       </c>
       <c r="E144">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>116</v>
       </c>
       <c r="F144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G144">
-        <f t="shared" si="19"/>
-        <v>3</v>
+      <c r="G144" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I144" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L144" s="4">
@@ -6408,23 +6288,22 @@
         <v>196</v>
       </c>
       <c r="E145">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>117</v>
       </c>
       <c r="F145">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="G145">
-        <f t="shared" si="19"/>
-        <v>3</v>
+      <c r="G145" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I145" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L145" s="4">
@@ -6445,23 +6324,22 @@
         <v>198</v>
       </c>
       <c r="E146">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>101</v>
       </c>
       <c r="F146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="G146">
-        <f t="shared" si="19"/>
-        <v>1</v>
+      <c r="G146" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I146" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L146" s="4">
@@ -6482,23 +6360,22 @@
         <v>198</v>
       </c>
       <c r="E147">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>102</v>
       </c>
       <c r="F147">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="G147">
-        <f t="shared" si="19"/>
-        <v>1</v>
+      <c r="G147" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I147" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L147" s="4">
@@ -6519,23 +6396,22 @@
         <v>198</v>
       </c>
       <c r="E148">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>103</v>
       </c>
       <c r="F148">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="G148">
-        <f t="shared" si="19"/>
-        <v>1</v>
+      <c r="G148" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I148" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L148" s="4">
@@ -6556,23 +6432,22 @@
         <v>198</v>
       </c>
       <c r="E149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>105</v>
       </c>
       <c r="F149">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G149">
-        <f t="shared" si="19"/>
-        <v>1</v>
+      <c r="G149" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I149" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L149" s="4">
@@ -6593,23 +6468,22 @@
         <v>198</v>
       </c>
       <c r="E150">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>108</v>
       </c>
       <c r="F150">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G150">
-        <f t="shared" si="19"/>
-        <v>2</v>
+      <c r="G150" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I150" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L150" s="4">
@@ -6630,23 +6504,22 @@
         <v>198</v>
       </c>
       <c r="E151">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>109</v>
       </c>
       <c r="F151">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="G151">
-        <f t="shared" si="19"/>
-        <v>2</v>
+      <c r="G151" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I151" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L151" s="4">
@@ -6667,23 +6540,22 @@
         <v>198</v>
       </c>
       <c r="E152">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>110</v>
       </c>
       <c r="F152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="G152">
-        <f t="shared" si="19"/>
-        <v>2</v>
+      <c r="G152" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I152" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L152" s="4">
@@ -6704,23 +6576,22 @@
         <v>198</v>
       </c>
       <c r="E153">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>111</v>
       </c>
       <c r="F153">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="G153">
-        <f t="shared" si="19"/>
-        <v>2</v>
+      <c r="G153" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I153" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L153" s="4">
@@ -6741,23 +6612,22 @@
         <v>198</v>
       </c>
       <c r="E154">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>113</v>
       </c>
       <c r="F154">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="G154">
-        <f t="shared" si="19"/>
-        <v>3</v>
+      <c r="G154" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I154" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L154" s="4">
@@ -6778,23 +6648,22 @@
         <v>198</v>
       </c>
       <c r="E155">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>115</v>
       </c>
       <c r="F155">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="G155">
-        <f t="shared" si="19"/>
-        <v>3</v>
+      <c r="G155" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I155" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L155" s="4">
@@ -6815,23 +6684,22 @@
         <v>198</v>
       </c>
       <c r="E156">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>116</v>
       </c>
       <c r="F156">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G156">
-        <f t="shared" si="19"/>
-        <v>3</v>
+      <c r="G156" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I156" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L156" s="4">
@@ -6852,23 +6720,22 @@
         <v>198</v>
       </c>
       <c r="E157">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>117</v>
       </c>
       <c r="F157">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="G157">
-        <f t="shared" si="19"/>
-        <v>3</v>
+      <c r="G157" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I157" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L157" s="4">
@@ -6889,23 +6756,22 @@
         <v>199</v>
       </c>
       <c r="E158">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>101</v>
       </c>
       <c r="F158">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="G158">
-        <f t="shared" si="19"/>
-        <v>1</v>
+      <c r="G158" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I158" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L158" s="4">
@@ -6926,23 +6792,22 @@
         <v>199</v>
       </c>
       <c r="E159">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>102</v>
       </c>
       <c r="F159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="G159">
-        <f t="shared" si="19"/>
-        <v>1</v>
+      <c r="G159" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I159" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L159" s="4">
@@ -6963,23 +6828,22 @@
         <v>199</v>
       </c>
       <c r="E160">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>103</v>
       </c>
       <c r="F160">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="G160">
-        <f t="shared" si="19"/>
-        <v>1</v>
+      <c r="G160" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I160" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L160" s="4">
@@ -7000,23 +6864,22 @@
         <v>199</v>
       </c>
       <c r="E161">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="F161">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="G161">
-        <f t="shared" si="19"/>
-        <v>1</v>
+      <c r="G161" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="I161" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L161" s="4">
@@ -7037,23 +6900,22 @@
         <v>199</v>
       </c>
       <c r="E162">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>105</v>
       </c>
       <c r="F162">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G162">
-        <f t="shared" si="19"/>
-        <v>1</v>
+      <c r="G162" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I162" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L162" s="4">
@@ -7074,23 +6936,22 @@
         <v>199</v>
       </c>
       <c r="E163">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>106</v>
       </c>
       <c r="F163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="G163">
-        <f t="shared" si="19"/>
-        <v>1</v>
+      <c r="G163" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="I163" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L163" s="4">
@@ -7111,23 +6972,22 @@
         <v>199</v>
       </c>
       <c r="E164">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>107</v>
       </c>
       <c r="F164">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="G164">
-        <f t="shared" si="19"/>
-        <v>2</v>
+      <c r="G164" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H164" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="I164" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L164" s="4">
@@ -7148,23 +7008,22 @@
         <v>199</v>
       </c>
       <c r="E165">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>108</v>
       </c>
       <c r="F165">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G165">
-        <f t="shared" si="19"/>
-        <v>2</v>
+      <c r="G165" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I165" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L165" s="4">
@@ -7185,23 +7044,22 @@
         <v>199</v>
       </c>
       <c r="E166">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>109</v>
       </c>
       <c r="F166">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="G166">
-        <f t="shared" si="19"/>
-        <v>2</v>
+      <c r="G166" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I166" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L166" s="4">
@@ -7222,23 +7080,22 @@
         <v>199</v>
       </c>
       <c r="E167">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>110</v>
       </c>
       <c r="F167">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="G167">
-        <f t="shared" si="19"/>
-        <v>2</v>
+      <c r="G167" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="I167" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L167" s="4">
@@ -7259,23 +7116,22 @@
         <v>199</v>
       </c>
       <c r="E168">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>111</v>
       </c>
       <c r="F168">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="G168">
-        <f t="shared" si="19"/>
-        <v>2</v>
+      <c r="G168" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I168" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Irrigated</v>
       </c>
       <c r="L168" s="4">
@@ -7296,23 +7152,22 @@
         <v>199</v>
       </c>
       <c r="E169">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>112</v>
       </c>
       <c r="F169">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="G169">
-        <f t="shared" si="19"/>
-        <v>2</v>
+      <c r="G169" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="I169" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>Dryland</v>
       </c>
       <c r="L169" s="4">
@@ -7333,23 +7188,22 @@
         <v>199</v>
       </c>
       <c r="E170">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>113</v>
       </c>
       <c r="F170">
-        <f t="shared" ref="F170:F181" si="23">VLOOKUP($E170,Layout,L$1,FALSE)</f>
+        <f t="shared" ref="F170:F181" si="18">VLOOKUP($E170,Layout,L$1,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="G170">
-        <f t="shared" ref="G170:G181" si="24">VLOOKUP($E170,Layout,M$1,FALSE)</f>
-        <v>3</v>
+      <c r="G170" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H170" t="str">
-        <f t="shared" ref="H170:H181" si="25">VLOOKUP($E170,Layout,N$1,FALSE)</f>
+        <f t="shared" ref="H170:H181" si="19">VLOOKUP($E170,Layout,N$1,FALSE)</f>
         <v>250</v>
       </c>
       <c r="I170" t="str">
-        <f t="shared" ref="I170:I181" si="26">VLOOKUP($E170,Layout,O$1,FALSE)</f>
+        <f t="shared" ref="I170:I181" si="20">VLOOKUP($E170,Layout,O$1,FALSE)</f>
         <v>Dryland</v>
       </c>
       <c r="L170" s="4">
@@ -7370,23 +7224,22 @@
         <v>199</v>
       </c>
       <c r="E171">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>114</v>
       </c>
       <c r="F171">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="G171">
-        <f t="shared" si="24"/>
-        <v>3</v>
+      <c r="G171" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H171" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="I171" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Irrigated</v>
       </c>
       <c r="L171" s="4">
@@ -7407,23 +7260,22 @@
         <v>199</v>
       </c>
       <c r="E172">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>115</v>
       </c>
       <c r="F172">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="G172">
-        <f t="shared" si="24"/>
-        <v>3</v>
+      <c r="G172" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H172" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I172" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Irrigated</v>
       </c>
       <c r="L172" s="4">
@@ -7444,23 +7296,22 @@
         <v>199</v>
       </c>
       <c r="E173">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>116</v>
       </c>
       <c r="F173">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G173">
-        <f t="shared" si="24"/>
-        <v>3</v>
+      <c r="G173" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I173" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Dryland</v>
       </c>
       <c r="L173" s="4">
@@ -7481,23 +7332,22 @@
         <v>199</v>
       </c>
       <c r="E174">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>117</v>
       </c>
       <c r="F174">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="G174">
-        <f t="shared" si="24"/>
-        <v>3</v>
+      <c r="G174" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>250</v>
       </c>
       <c r="I174" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Irrigated</v>
       </c>
       <c r="L174" s="4">
@@ -7518,23 +7368,22 @@
         <v>199</v>
       </c>
       <c r="E175">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>118</v>
       </c>
       <c r="F175">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="G175">
-        <f t="shared" si="24"/>
-        <v>3</v>
+      <c r="G175" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H175" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="I175" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Dryland</v>
       </c>
       <c r="L175" s="4">
@@ -7555,23 +7404,22 @@
         <v>199</v>
       </c>
       <c r="E176">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>119</v>
       </c>
       <c r="F176">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="G176">
-        <f t="shared" si="24"/>
-        <v>4</v>
+      <c r="G176" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="I176" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Irrigated</v>
       </c>
       <c r="L176" s="4">
@@ -7592,23 +7440,22 @@
         <v>199</v>
       </c>
       <c r="E177">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="F177">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="G177">
-        <f t="shared" si="24"/>
-        <v>4</v>
+      <c r="G177" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="I177" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Dryland</v>
       </c>
       <c r="L177" s="4">
@@ -7629,23 +7476,22 @@
         <v>199</v>
       </c>
       <c r="E178">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>121</v>
       </c>
       <c r="F178">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G178">
-        <f t="shared" si="24"/>
-        <v>4</v>
+      <c r="G178" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I178" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Dryland</v>
       </c>
       <c r="L178" s="4">
@@ -7666,23 +7512,22 @@
         <v>199</v>
       </c>
       <c r="E179">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>122</v>
       </c>
       <c r="F179">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="G179">
-        <f t="shared" si="24"/>
-        <v>4</v>
+      <c r="G179" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I179" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Irrigated</v>
       </c>
       <c r="L179" s="4">
@@ -7703,23 +7548,22 @@
         <v>199</v>
       </c>
       <c r="E180">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>123</v>
       </c>
       <c r="F180">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="G180">
-        <f t="shared" si="24"/>
-        <v>4</v>
+      <c r="G180" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>250</v>
       </c>
       <c r="I180" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Irrigated</v>
       </c>
       <c r="L180" s="4">
@@ -7740,23 +7584,22 @@
         <v>199</v>
       </c>
       <c r="E181">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>124</v>
       </c>
       <c r="F181">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="G181">
-        <f t="shared" si="24"/>
-        <v>4</v>
+      <c r="G181" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>250</v>
       </c>
       <c r="I181" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Dryland</v>
       </c>
       <c r="L181" s="5">
